--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_and_Hydro_Trans.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_and_Hydro_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EF022-4035-4D89-AC1C-042FAE4FD660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D9A98-F29D-4377-BD36-F6921552EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="21600" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
@@ -81,18 +81,6 @@
     <t>NCAP_ILED</t>
   </si>
   <si>
-    <t>EN[_]SPV*</t>
-  </si>
-  <si>
-    <t>EN[_]W*</t>
-  </si>
-  <si>
-    <t>EN[_]WOF*</t>
-  </si>
-  <si>
-    <t>EN[_]WON*</t>
-  </si>
-  <si>
     <t>ElcAgg_Solar</t>
   </si>
   <si>
@@ -220,6 +208,18 @@
   </si>
   <si>
     <t>ELE,-STG</t>
+  </si>
+  <si>
+    <t>E[_]W*</t>
+  </si>
+  <si>
+    <t>E[_]WOF*</t>
+  </si>
+  <si>
+    <t>E[_]WON*</t>
+  </si>
+  <si>
+    <t>E[_]SPV*</t>
   </si>
 </sst>
 </file>
@@ -563,84 +563,84 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>2700</v>
@@ -652,42 +652,42 @@
         <v>2700</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3">
         <v>1110</v>
@@ -699,42 +699,42 @@
         <v>480</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>4060</v>
@@ -746,42 +746,42 @@
         <v>1980</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L5">
         <v>1500</v>
@@ -793,42 +793,42 @@
         <v>1370</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>70</v>
@@ -840,42 +840,42 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -887,42 +887,42 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8">
         <v>120</v>
@@ -934,42 +934,42 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>38</v>
@@ -981,42 +981,42 @@
         <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1028,42 +1028,42 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -1075,42 +1075,42 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1122,42 +1122,42 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -1169,7 +1169,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1201,7 +1201,7 @@
   <sheetData>
     <row r="3" spans="3:24" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.45">
@@ -1209,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.45">
@@ -1235,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
@@ -1249,19 +1249,19 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <v>8.76</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
@@ -1269,19 +1269,19 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -1319,24 +1319,24 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.45">
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q13">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
@@ -1363,10 +1363,10 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.45">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q14">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" ref="T14:T16" si="0">X14</f>
-        <v>EN[_]SPV*</v>
+        <v>E[_]SPV*</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X14" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.45">
@@ -1419,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
@@ -1444,13 +1444,13 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="0"/>
-        <v>EN[_]WOF*</v>
+        <v>E[_]WOF*</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.45">
@@ -1458,13 +1458,13 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1">
         <v>8.76</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q16">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
@@ -1480,13 +1480,13 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="0"/>
-        <v>EN[_]WON*</v>
+        <v>E[_]WON*</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.45">
@@ -1494,13 +1494,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q17">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
@@ -1532,13 +1532,13 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q18">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" ref="T18:T24" si="2">T14</f>
-        <v>EN[_]SPV*</v>
+        <v>E[_]SPV*</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" ref="W18" si="3">W14</f>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]SPV*</v>
+        <v>E[_]SPV*</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.45">
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q19">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="2"/>
-        <v>EN[_]WOF*</v>
+        <v>E[_]WOF*</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" ref="W19" si="4">W15</f>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="X19" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]WOF*</v>
+        <v>E[_]WOF*</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.45">
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q20">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="2"/>
-        <v>EN[_]WON*</v>
+        <v>E[_]WON*</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" ref="W20" si="5">W16</f>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="X20" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]WON*</v>
+        <v>E[_]WON*</v>
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.45">
@@ -1646,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>0.25</v>
       </c>
       <c r="P21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q21">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P21,weo_pg!$D$2:$D$18,Misc!$W21)</f>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q22">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P22,weo_pg!$D$2:$D$18,Misc!$W22)</f>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="2"/>
-        <v>EN[_]SPV*</v>
+        <v>E[_]SPV*</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" ref="W22" si="7">W18</f>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="X22" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]SPV*</v>
+        <v>E[_]SPV*</v>
       </c>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q23">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P23,weo_pg!$D$2:$D$18,Misc!$W23)</f>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="2"/>
-        <v>EN[_]WOF*</v>
+        <v>E[_]WOF*</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" ref="W23" si="8">W19</f>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="X23" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]WOF*</v>
+        <v>E[_]WOF*</v>
       </c>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q24">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P24,weo_pg!$D$2:$D$18,Misc!$W24)</f>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="2"/>
-        <v>EN[_]WON*</v>
+        <v>E[_]WON*</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" ref="W24" si="9">W20</f>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="X24" t="str">
         <f t="shared" si="1"/>
-        <v>EN[_]WON*</v>
+        <v>E[_]WON*</v>
       </c>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.45">
@@ -1782,7 +1782,7 @@
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -1835,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G32">
         <v>200</v>
@@ -1846,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1879,40 +1879,40 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
